--- a/project/DB/recipe_database.xlsx
+++ b/project/DB/recipe_database.xlsx
@@ -509,10 +509,8 @@
           <t>['kcal 575', 'fat 30g', 'saturates 14g', 'carbs 41g', 'sugars 9g', 'fibre 5g', 'protein 33g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G2" t="n">
+        <v>6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -559,10 +557,8 @@
           <t>['kcal 383', 'fat 15g', 'saturates 5g', 'carbs 16g', 'sugars 14g', 'fibre 5g', 'protein 44g', 'salt 1.5g']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G3" t="n">
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -609,10 +605,8 @@
           <t>['kcal 461', 'fat 29g', 'saturates 9g', 'carbs 37g', 'sugars 14g', 'fibre 5g', 'protein 13g', 'low in salt 0.6g']</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G4" t="n">
+        <v>6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -659,10 +653,8 @@
           <t>['low in kcal 487', 'fat 14g', 'saturates 2g', 'carbs 47g', 'sugars 7g', 'fibre 7g', 'protein 40g', 'salt 1.14g']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G5" t="n">
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -709,10 +701,8 @@
           <t>['kcal 805', 'fat 38g', 'saturates 10g', 'carbs 67g', 'sugars 31g', 'high in fibre 7g', 'protein 46g', 'salt 1.69g']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G6" t="n">
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -759,10 +749,8 @@
           <t>['kcal 634', 'fat 37g', 'saturates 20g', 'carbs 31g', 'sugars 8g', 'fibre 4g', 'protein 42g', 'salt 1.7g']</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G7" t="n">
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -809,10 +797,8 @@
           <t>['kcal 484', 'fat 18g', 'saturates 5g', 'carbs 37g', 'sugars 8g', 'fibre 6g', 'protein 40g', 'salt 1.3g']</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G8" t="n">
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -859,7 +845,9 @@
           <t>['kcal 537', 'fat 32g', 'saturates 10g', 'carbs 25g', 'sugars 12g', 'fibre 5g', 'protein 35g', 'salt 0.4g']</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>['pork', 'garlic cloves', 'tomato purée', 'chipotle paste', 'orange', 'limes', 'pineapple', 'dried  oregano', 'smoked  paprika', 'ground cumin', 'ground coriander', 'nutmeg']</t>
@@ -905,10 +893,8 @@
           <t>['kcal 569', 'fat 28g', 'saturates 11g', 'carbs 32g', 'sugars 4g', 'fibre 4g', 'protein 47g', 'salt 2.1g']</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G10" t="n">
+        <v>6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -955,10 +941,8 @@
           <t>['kcal 610', 'fat 37g', 'saturates 12g', 'carbs 22g', 'sugars 7g', 'fibre 9g', 'protein 43g', 'salt 0.8g']</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G11" t="n">
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1005,10 +989,8 @@
           <t>['low in kcal 330', 'low in fat 12g', 'saturates 3g', 'carbs 36g', 'sugars 14g', 'fibre 6g', 'protein 17g', 'salt 0.7g']</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G12" t="n">
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1055,10 +1037,8 @@
           <t>['kcal 210', 'fat 8g', 'saturates 2g', 'carbs 8g', 'sugars 8g', 'fibre 5g', 'protein 25g', 'salt 0.3g']</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G13" t="n">
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1105,10 +1085,8 @@
           <t>['kcal 606', 'fat 30g', 'saturates 18g', 'carbs 47g', 'sugars 10g', 'fibre 3g', 'protein 36g', 'salt 2.4g']</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G14" t="n">
+        <v>6</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1155,10 +1133,8 @@
           <t>['kcal 748', 'fat 44g', 'saturates 22g', 'carbs 53g', 'sugars 7g', 'high in fibre 8g', 'protein 31g', 'salt 1.2g']</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G15" t="n">
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1205,10 +1181,8 @@
           <t>['low in kcal 435', 'fat 14g', 'saturates 6g', 'carbs 44g', 'sugars 9g', 'fibre 7g', 'protein 29g', 'salt 1.4g']</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G16" t="n">
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1255,10 +1229,8 @@
           <t>['low in kcal 463', 'fat 19g', 'saturates 6g', 'carbs 44g', 'sugars 5g', 'fibre 7g', 'protein 25g', 'salt 0.2g']</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
+      <c r="G17" t="n">
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1305,7 +1277,9 @@
           <t>['kcal 504', 'fat 22g', 'saturates 12g', 'carbs 47g', 'sugars 8g', 'fibre 5g', 'protein 28g', 'salt 1.1g']</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>['milk', 'plain flour', 'butter', 'Dijon mustard', 'mature  cheddar', 'frozen peas', 'parsley', 'macaroni', 'fish pie mix', 'green salad']</t>
@@ -1351,7 +1325,9 @@
           <t>['kcal 565', 'fat 28g', 'saturates 13g', 'carbs 34g', 'sugars 19g', 'fibre 6g', 'protein 42g', 'salt 1.3g']</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>['turkey thigh mince', 'dried oregano', 'fennel seeds', 'olive oil', 'onion,', 'garlic cloves,', 'tomato purée', 'tomatoes', 'sugar', 'mozzarella,', 'garlic breadsticks', 'cheddar,', 'green salad']</t>
@@ -1397,10 +1373,8 @@
           <t>['low in kcal 318', 'fat 16g', 'saturates 4g', 'carbs 13g', 'sugars 13g', 'fibre 4g', 'protein 27g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G20" t="n">
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1447,7 +1421,9 @@
           <t>['kcal 612', 'fat 24g', 'saturates 8g', 'carbs 56g', 'sugars 15g', 'fibre 11g', 'protein 36g', 'salt 0.6g']</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>['baby new potatoes', 'olive oil', 'lemon', 'garlic cloves', 'thyme', 'bay leaves', 'chicken', 'paprika', 'carrots']</t>
@@ -1493,10 +1469,8 @@
           <t>['kcal 796', 'fat 34g', 'saturates 5g', 'carbs 62g', 'sugars 15g', 'fibre 13g', 'protein 54g', 'salt 1.7g']</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G22" t="n">
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1543,10 +1517,8 @@
           <t>['low in kcal 432', 'fat 16g', 'saturates 3g', 'carbs 50g', 'sugars 12g', 'fibre 5g', 'protein 18g', 'salt 1.1g']</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G23" t="n">
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1593,10 +1565,8 @@
           <t>['kcal 396', 'fat 9g', 'saturates 1g', 'carbs 37g', 'sugars 21g', 'fibre 8g', 'protein 37g', 'salt 0.6g']</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G24" t="n">
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1643,10 +1613,8 @@
           <t>['low in kcal 452', 'fat 14g', 'saturates 4g', 'carbs 60g', 'sugars 5g', 'fibre 7g', 'protein 19g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G25" t="n">
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>

--- a/project/DB/recipe_database.xlsx
+++ b/project/DB/recipe_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>quantities</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>kg_quantities_per_portion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,6 +532,11 @@
           <t>['4 tbsp', '1', '2', '¼ tsp', '2 x 400g cans chopped', '1 tsp', '6 tbsp', '4', '300g', '70g', '50g', '½ small bunch of']</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.01, 0.016666666666666666, 0.03333333333333333, 0.00020537166666666665, 0.13333333333333333, 0.0008214866666666666, 0.015, 0.06666666666666667, 0.049999999999999996, 0.011666666666666667, 0.008333333333333333, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -575,6 +585,11 @@
           <t>['120g', '1', '2', '1 tsp', '80g', '600g', '400g can', '100ml', '1', None]</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[0.03, 0.025, 0.05, 0.00123223, 0.02, 0.15, 0.1, 0.025, 0.025, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -623,6 +638,11 @@
           <t>['3', '2', '8 tbsp', '300g', '125g', 'handful']</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[0.05000000000000001, 0.03333333333333333, 0.02, 0.049999999999999996, 0.020833333333333332, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -671,6 +691,11 @@
           <t>['100g', '160g', '50g', '3', '½ tsp', 'good handful', '2 tsp', 'few drops', '1 tbsp', '2', '280g']</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[0.05, 0.08, 0.025, 0.15000000000000002, 0.00123223, 0.0, 0.00492892, 0.0, 0.0075, 0.1, 0.14]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -719,6 +744,11 @@
           <t>['1kg', '4 tbsp', '6', None, '6 tbsp', '6 tbsp', '4']</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[0.25, 0.015, 0.15000000000000002, 0.0, 0.0225, 0.0225, 0.1]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -767,6 +797,11 @@
           <t>['200g', '1 tbsp', '1 tbsp', '200ml', '½ tsp', '100g', '200g', '50g', '50g', '1', '1 tbsp', None]</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0075, 0.0075, 0.1, 0.00123223, 0.05, 0.1, 0.025, 0.025, 0.05, 0.0075, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -815,6 +850,11 @@
           <t>['1 tbsp', '200g', '30g', '100g', '2 tsp', '1', '1½ tbsp', '1kg', '500g', '320g']</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[0.00375, 0.05, 0.0075, 0.025, 0.00246446, 0.025, 0.005625, 0.25, 0.125, 0.08]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -863,6 +903,11 @@
           <t>['1½kg boneless ', '2', '2 tbsp', '1 tbsp', '1', '2', '432g can ', '2 tsp', '2 tsp', '1 tsp', '1 tsp', 'grating of fresh ']</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[0.25, 0.03333333333333333, 0.005, 0.0025, 0.016666666666666666, 0.03333333333333333, 0.072, 0.0016429733333333332, 0.0016429733333333332, 0.0008214866666666666, 0.0008214866666666666, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -911,6 +956,11 @@
           <t>['2½ tbsp', '1kg', '100g', '2', '2', '200g', '3 tbsp', '1 tbsp', '150ml', '2', '1', '375g']</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[0.0062499999999999995, 0.16666666666666666, 0.016666666666666666, 0.03333333333333333, 0.03333333333333333, 0.03333333333333333, 0.0075, 0.0025, 0.024999999999999998, 0.03333333333333333, 0.016666666666666666, 0.0625]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -959,6 +1009,11 @@
           <t>['2 tbsp', '1', '1', '400g can', '100ml', '200g', '3 tbsp', '½ tbsp', '2']</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[0.015, 0.05, 0.05, 0.2, 0.05, 0.1, 0.0225, 0.00375, 0.1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1007,6 +1062,11 @@
           <t>['1½ tbsp', '1', '2', '1', '½ tsp', '2 x 400g cans chopped', '100g', '500ml', '12', '150g', '½ small bunch of', None]</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[0.005625, 0.025, 0.05, 0.025, 0.000616115, 0.2, 0.025, 0.125, 0.30000000000000004, 0.0375, 0.0, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1055,6 +1115,11 @@
           <t>['400g', '1 tbsp', '½ tbsp dried', '1', '½ tsp', '100ml', '1', '½', '2', '2', None, None]</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[0.1, 0.00375, 0.001875, 0.025, 0.000616115, 0.025, 0.025, 0.0125, 0.05, 0.05, 0.0, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1103,6 +1168,11 @@
           <t>['70g', '70g', '1l', '1', '80g', '2 tsp', 'pinch of ', '600g', '250g', '1 whole ', '300g', '12', '50g']</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[0.011666666666666667, 0.011666666666666667, 0.16666666666666666, 0.016666666666666666, 0.013333333333333334, 0.0016429733333333332, 0.0, 0.09999999999999999, 0.041666666666666664, 0.0, 0.049999999999999996, 0.20000000000000004, 0.008333333333333333]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1151,6 +1221,11 @@
           <t>['1', '25g', '1', '1', '1', 'small handful of', '500g Maris Piper or', '10 pitted', '100ml chicken or']</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[0.05, 0.0125, 0.05, 0.05, 0.05, 0.0, 0.25, 0.0, 0.05]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1199,6 +1274,11 @@
           <t>['350g', '200ml', '2 tbsp', '400g', '4', '1 tbsp', '150ml', '1 tsp', '200g', '1 tsp', '250g']</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[0.08750000000000001, 0.05, 0.0075, 0.1, 0.1, 0.00375, 0.0375, 0.00123223, 0.05, 0.00123223, 0.0625]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1247,6 +1327,11 @@
           <t>['240g', 'knob of', '1', '140g', '2', '140g', '½', 'small bunch of']</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[0.08, 0.0, 0.03333333333333333, 0.04666666666666667, 0.06666666666666667, 0.04666666666666667, 0.016666666666666666, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1295,6 +1380,11 @@
           <t>['650ml', '40g', '40g', '2 tsp', '150g', '180g', 'handful of ', '300g', '300g', None]</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[0.10833333333333334, 0.006666666666666667, 0.006666666666666667, 0.0016429733333333332, 0.024999999999999998, 0.03, 0.0, 0.049999999999999996, 0.049999999999999996, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1343,6 +1433,11 @@
           <t>['350g', '1 tsp', '1 tsp', '1½ tbsp ', '1 large ', '3', '1 tbsp', '2 x 400g cans chopped ', '2 tsp', '150g ball ', '4', '25g', None]</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[0.11666666666666668, 0.0016429733333333332, 0.0016429733333333332, 0.0075, 0.0, 0.10000000000000002, 0.005, 0.26666666666666666, 0.0032859466666666664, 0.049999999999999996, 0.13333333333333333, 0.008333333333333333, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1391,6 +1486,11 @@
           <t>['1 tbsp', '2 tbsp', '1½ tbsp', '8', '1', '1', '2 tbsp', '125g', '1', '3', '4']</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[0.00375, 0.0075, 0.005625, 0.2, 0.025, 0.025, 0.0075, 0.03125, 0.025, 0.07500000000000001, 0.1]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1439,6 +1539,11 @@
           <t>['700g', '2 tbsp', '1', '4', 'small bunch of ', '4', None, '½ tsp ', '300g']</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[0.23333333333333336, 0.01, 0.03333333333333333, 0.13333333333333333, 0.0, 0.13333333333333333, 0.0, 0.0008214866666666666, 0.09999999999999999]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1487,6 +1592,11 @@
           <t>['1', '200g', '3 tbsp', '400g can ', '2', '1 large or 2 small ', '2 tbsp', None]</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[0.05, 0.1, 0.0225, 0.2, 0.1, 0.0, 0.015, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1535,6 +1645,11 @@
           <t>['1', '1 thumb-sized piece', '2', '1 tbsp', '2-3 tbsp', '400g can chopped', '2 tbsp', '½ tbsp', '3', '200g', '3 tbsp', '300g', '1 tbsp', '½ bunch of', None]</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[0.025, 0.0, 0.05, 0.00375, 0.0075, 0.1, 0.0075, 0.001875, 0.07500000000000001, 0.05, 0.01125, 0.075, 0.00375, 0.0, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1583,6 +1698,11 @@
           <t>['2', '1 tbsp', '4 tbsp', '2 tbsp', '3', '1', '1 tbsp', '300g', '50ml', '1 tbsp', '4', '1']</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[0.05, 0.00375, 0.015, 0.0075, 0.07500000000000001, 0.025, 0.00375, 0.075, 0.0125, 0.00375, 0.1, 0.025]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1629,6 +1749,11 @@
       <c r="J25" t="inlineStr">
         <is>
           <t>['300g', '300g', '1 tbsp', '1 large bunch of', '1 large', '2 tbsp', '1 tbsp', '50g', '200g']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[0.075, 0.075, 0.00375, 0.0, 0.0, 0.0075, 0.00375, 0.0125, 0.05]</t>
         </is>
       </c>
     </row>

--- a/project/DB/recipe_database.xlsx
+++ b/project/DB/recipe_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,27 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>kg_quantities_per_portion</t>
+          <t>quantities_per_portion_kg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>carbon_emission_per_ingredient_kg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total_carbon_emission_per_portion_kg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>land_use_per_ingredient_m^2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>total_land_per_portion_kg</t>
         </is>
       </c>
     </row>
@@ -537,6 +557,22 @@
           <t>[0.01, 0.016666666666666666, 0.03333333333333333, 0.00020537166666666665, 0.13333333333333333, 0.0008214866666666666, 0.015, 0.06666666666666667, 0.049999999999999996, 0.011666666666666667, 0.008333333333333333, 0.0]</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.0053, 0.008333333333333333, 0.016666666666666666, 0, 0.2786666666666666, 0.0026287573333333334, 0.35819999999999996, 0.6579999999999999, 0.0785, 0.2786, 0.19899999999999998, 0]</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0.0038, 0.0065, 0.013, 0, 0.10666666666666667, 0.0016758328, 1.31685, 0.8146666666666667, 0.19249999999999998, 1.0242166666666668, 0.7315833333333334, 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -590,6 +626,22 @@
           <t>[0.03, 0.025, 0.05, 0.00123223, 0.02, 0.15, 0.1, 0.025, 0.025, 0.0]</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[0.3693, 0.0125, 0.025, 0, 0.0418, 1.4805, 0.209, 0.24675, 0.009750000000000002, 0.0]</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0.5207999999999999, 0.009750000000000002, 0.019500000000000003, 0, 0.016, 1.833, 0.08000000000000002, 0.30550000000000005, 0.021500000000000002, 0.0]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -643,6 +695,22 @@
           <t>[0.05000000000000001, 0.03333333333333333, 0.02, 0.049999999999999996, 0.020833333333333332, 0.0]</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[0.026500000000000006, 0.017666666666666667, 0.0106, 0.0785, 0.49749999999999994, 0.0]</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0.019000000000000003, 0.012666666666666666, 0.0076, 0.19249999999999998, 1.8289583333333335, 0.0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -696,6 +764,22 @@
           <t>[0.05, 0.08, 0.025, 0.15000000000000002, 0.00123223, 0.0, 0.00492892, 0.0, 0.0075, 0.1, 0.14]</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[0.22250000000000003, 0.0784, 0.044750000000000005, 0.07500000000000001, 0, 0, 0, 0.0, 0.003975, 0.467, 1.9082000000000003]</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0.13999999999999999, 0.5968, 0.38925000000000004, 0.05850000000000001, 0, 0, 0, 0.0, 0.00285, 0.627, 1.1774000000000002]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -749,6 +833,22 @@
           <t>[0.25, 0.015, 0.15000000000000002, 0.0, 0.0225, 0.0225, 0.1]</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[0.115, 0.00795, 0.07500000000000001, 0, 0, 0, 1.231]</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[0.22, 0.0057, 0.05850000000000001, 0, 0, 0, 1.736]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -802,6 +902,22 @@
           <t>[0.1, 0.0075, 0.0075, 0.1, 0.00123223, 0.05, 0.1, 0.025, 0.025, 0.05, 0.0075, 0.0]</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[0.046000000000000006, 0.023625, 0.011775, 0.315, 0, 1.194, 1.3630000000000002, 0.0245, 0.013250000000000001, 0.025, 0.17909999999999998, 0.0]</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0.08800000000000001, 0.06712499999999999, 0.028874999999999998, 0.895, 0, 4.389500000000001, 0.8410000000000001, 0.1865, 0.009500000000000001, 0.019500000000000003, 0.658425, 0.0]</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -855,6 +971,22 @@
           <t>[0.00375, 0.05, 0.0075, 0.025, 0.00246446, 0.025, 0.005625, 0.25, 0.125, 0.08]</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[0, 0, 0.17909999999999998, 0.03925000000000001, 0, 0.009750000000000002, 0.00298125, 2.4675, 0.0575, 0.1432]</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[0, 0, 0.658425, 0.09625, 0, 0.021500000000000002, 0.0021375, 3.055, 0.11, 1.2456]</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -908,6 +1040,22 @@
           <t>[0.25, 0.03333333333333333, 0.005, 0.0025, 0.016666666666666666, 0.03333333333333333, 0.072, 0.0016429733333333332, 0.0016429733333333332, 0.0008214866666666666, 0.0008214866666666666, 0.0]</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[3.0775, 0.016666666666666666, 0.01045, 0.001325, 0, 0, 0.0756, 0, 0, 0, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[4.34, 0.013, 0.004, 0.00095, 0, 0, 0.06408, 0, 0, 0, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -961,6 +1109,22 @@
           <t>[0.0062499999999999995, 0.16666666666666666, 0.016666666666666666, 0.03333333333333333, 0.03333333333333333, 0.03333333333333333, 0.0075, 0.0025, 0.024999999999999998, 0.03333333333333333, 0.016666666666666666, 0.0625]</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[0.0033125, 16.58, 0.20516666666666666, 0.016666666666666666, 0, 0.017666666666666667, 0.011775, 0.005225, 0.04475, 0, 0.07783333333333334, 0.098125]</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[0.002375, 54.368333333333325, 0.28933333333333333, 0.013, 0, 0.012666666666666666, 0.028874999999999998, 0.002, 0.0445, 0, 0.1045, 0.240625]</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1014,6 +1178,22 @@
           <t>[0.015, 0.05, 0.05, 0.2, 0.05, 0.1, 0.0225, 0.00375, 0.1]</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[0.00795, 0.025, 0.025, 0.35800000000000004, 0.4935, 0.053000000000000005, 0.070875, 0, 1.231]</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[0.0057, 0.019500000000000003, 0.019500000000000003, 3.1140000000000003, 0.6110000000000001, 0.038000000000000006, 0.20137499999999997, 0, 1.736]</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1067,6 +1247,22 @@
           <t>[0.005625, 0.025, 0.05, 0.025, 0.000616115, 0.2, 0.025, 0.125, 0.30000000000000004, 0.0375, 0.0, 0.0]</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[0.00298125, 0.0125, 0.026500000000000003, 0.0125, 0, 0.418, 0.11125000000000002, 0, 3.6930000000000005, 0.019875, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[0.0021375, 0.009750000000000002, 0.019000000000000003, 0.009750000000000002, 0, 0.16000000000000003, 0.06999999999999999, 0, 5.208, 0.014249999999999999, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1120,6 +1316,22 @@
           <t>[0.1, 0.00375, 0.001875, 0.025, 0.000616115, 0.025, 0.025, 0.0125, 0.05, 0.05, 0.0, 0.0]</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[1.231, 0.0019875, 0, 0.009750000000000002, 0, 0, 0.0125, 0.013125000000000001, 0.026500000000000003, 0.026500000000000003, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[1.736, 0.001425, 0, 0.021500000000000002, 0, 0, 0.009750000000000002, 0.011125000000000001, 0.019000000000000003, 0.019000000000000003, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1173,6 +1385,22 @@
           <t>[0.011666666666666667, 0.011666666666666667, 0.16666666666666666, 0.016666666666666666, 0.013333333333333334, 0.0016429733333333332, 0.0, 0.09999999999999999, 0.041666666666666664, 0.0, 0.049999999999999996, 0.20000000000000004, 0.008333333333333333]</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[0.03675, 0.01831666666666667, 0.5249999999999999, 0, 0.3184, 0, 0, 0.053, 0.9949999999999999, 0.0, 0.6154999999999999, 0.31400000000000006, 0.19899999999999998]</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[0.10441666666666666, 0.04491666666666667, 1.4916666666666665, 0, 1.1705333333333334, 0, 0, 0.038, 3.657916666666667, 0.0, 0.8679999999999999, 0.7700000000000001, 0.7315833333333334]</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1226,6 +1454,22 @@
           <t>[0.05, 0.0125, 0.05, 0.05, 0.05, 0.0, 0.25, 0.0, 0.05]</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[1.986, 0.039375, 0.025, 0.025, 0.6815000000000001, 0, 0.115, 0.0, 1.986]</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[18.4905, 0.111875, 0.019500000000000003, 0.019500000000000003, 0.42050000000000004, 0, 0.22, 0.0, 18.4905]</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1279,6 +1523,22 @@
           <t>[0.08750000000000001, 0.05, 0.0075, 0.1, 0.1, 0.00375, 0.0375, 0.00123223, 0.05, 0.00123223, 0.0625]</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[0.04025000000000001, 0.1575, 0.011775, 1.3630000000000002, 0.05, 0, 0.118125, 0.0022056917, 0.049, 0.0006530819, 0.033125]</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[0.07700000000000001, 0.4475, 0.028874999999999998, 0.8410000000000001, 0.03900000000000001, 0, 0.33562499999999995, 0.0191858211, 0.373, 0.0004682474, 0.02375]</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1332,6 +1592,22 @@
           <t>[0.08, 0.0, 0.03333333333333333, 0.04666666666666667, 0.06666666666666667, 0.04666666666666667, 0.016666666666666666, 0.0]</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[0.12560000000000002, 0.0, 0.016666666666666666, 0.045733333333333334, 0.9086666666666667, 0.147, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[0.308, 0.0, 0.013, 0.34813333333333335, 0.5606666666666666, 0.41766666666666663, 0, 0]</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1385,6 +1661,22 @@
           <t>[0.10833333333333334, 0.006666666666666667, 0.006666666666666667, 0.0016429733333333332, 0.024999999999999998, 0.03, 0.0, 0.049999999999999996, 0.049999999999999996, 0.0]</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[0.34125, 0.010466666666666668, 0.021, 0, 0.597, 0.0294, 0, 0.0785, 0.6815, 0.0]</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[0.9695833333333332, 0.025666666666666667, 0.059666666666666666, 0, 2.19475, 0.2238, 0, 0.19249999999999998, 0.4205, 0.0]</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1438,6 +1730,22 @@
           <t>[0.11666666666666668, 0.0016429733333333332, 0.0016429733333333332, 0.0075, 0.0, 0.10000000000000002, 0.005, 0.26666666666666666, 0.0032859466666666664, 0.049999999999999996, 0.13333333333333333, 0.008333333333333333, 0.0]</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[1.1515, 0, 0, 0.003975, 0.0, 0.05000000000000001, 0.01045, 0.5573333333333332, 0.010515029333333334, 1.194, 0.20933333333333334, 0.19899999999999998, 0.0]</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[1.4256666666666669, 0, 0, 0.00285, 0.0, 0.03900000000000001, 0.004, 0.21333333333333335, 0.0067033312, 4.3895, 0.5133333333333333, 0.7315833333333334, 0.0]</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1491,6 +1799,22 @@
           <t>[0.00375, 0.0075, 0.005625, 0.2, 0.025, 0.025, 0.0075, 0.03125, 0.025, 0.07500000000000001, 0.1]</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[0.0019875, 0.003975, 0, 1.974, 0, 0.013250000000000001, 0, 0.0165625, 0.013250000000000001, 0.037500000000000006, 0.17]</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[0.001425, 0.00285, 0, 2.4440000000000004, 0, 0.009500000000000001, 0, 0.011875, 0.009500000000000001, 0.029250000000000005, 0.294]</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1544,6 +1868,22 @@
           <t>[0.23333333333333336, 0.01, 0.03333333333333333, 0.13333333333333333, 0.0, 0.13333333333333333, 0.0, 0.0008214866666666666, 0.09999999999999999]</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[0.10733333333333335, 0.0053, 0.013, 0.06666666666666667, 0, 0, 0.0, 0, 0.053]</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[0.20533333333333337, 0.0038, 0.028666666666666667, 0.052, 0, 0, 0.0, 0, 0.038]</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1597,6 +1937,22 @@
           <t>[0.05, 0.1, 0.0225, 0.2, 0.1, 0.0, 0.015, 0.0]</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[0.025, 0.209, 0, 0.196, 1.3630000000000002, 0.0, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[0.019500000000000003, 0.08000000000000002, 0, 1.492, 0.8410000000000001, 0.0, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1650,6 +2006,22 @@
           <t>[0.025, 0.0, 0.05, 0.00375, 0.0075, 0.1, 0.0075, 0.001875, 0.07500000000000001, 0.05, 0.01125, 0.075, 0.00375, 0.0, 0.0]</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[0.0125, 0, 0.025, 0.0019875, 0, 0.209, 0.015674999999999998, 0.006, 0, 0.22250000000000003, 0.0363375, 2.01525, 0.0118125, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[0.009750000000000002, 0, 0.019500000000000003, 0.001425, 0, 0.08000000000000002, 0.006, 0.003825, 0, 0.13999999999999999, 0.1024875, 0.22275, 0.033562499999999995, 0, 0.0]</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1703,6 +2075,22 @@
           <t>[0.05, 0.00375, 0.015, 0.0075, 0.07500000000000001, 0.025, 0.00375, 0.075, 0.0125, 0.00375, 0.1, 0.025]</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[0.023000000000000003, 0.0019875, 0, 0, 0.07875000000000001, 0.0125, 0, 0.0735, 0.039375, 0, 1.3630000000000002, 0.009750000000000002]</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[0.044000000000000004, 0.001425, 0, 0, 0.06675000000000002, 0.009750000000000002, 0, 0.5595, 0.111875, 0, 0.8410000000000001, 0.021500000000000002]</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1755,6 +2143,22 @@
         <is>
           <t>[0.075, 0.075, 0.00375, 0.0, 0.0, 0.0075, 0.00375, 0.0125, 0.05]</t>
         </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[0.03975, 0.11775, 0.0121125, 0.0, 0.0, 0.17909999999999998, 0.0019875, 0.153875, 0.1045]</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[0.028499999999999998, 0.28875, 0.0341625, 0.0, 0.0, 0.658425, 0.001425, 0.217, 0.04000000000000001]</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2682625</v>
       </c>
     </row>
   </sheetData>

--- a/project/DB/recipe_database.xlsx
+++ b/project/DB/recipe_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,55 +451,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>nutrition_info</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>serves</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ingredients</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>categories</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantities</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>quantities_per_portion_kg</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>carbon_emission_per_ingredient_kg</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>total_carbon_emission_per_portion_kg</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>land_use_per_ingredient_m^2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>total_land_per_portion_kg</t>
         </is>
@@ -521,56 +526,61 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/chicken-pasta-bake</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/chicken_pasta_bake-06fe2d6.jpg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>['Cheese', 'Chicken', 'Chicken pasta bake', 'Comfort Food', 'Esther Clark', 'Mascarpone', 'Mozzarella', 'Pasta', 'Pasta bake']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['kcal 575', 'fat 30g', 'saturates 14g', 'carbs 41g', 'sugars 9g', 'fibre 5g', 'protein 33g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['olive oil', 'onion', 'garlic cloves', 'chilli flakes', 'tomatoes', 'caster sugar', 'mascarpone', 'skinless chicken', 'penne', 'mature cheddar', 'grated mozzarella', 'parsley']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Onions &amp; Leeks', 'Onions &amp; Leeks', None, 'Tomatoes', 'Cane Sugar', 'Cheese', 'Poultry Meat', 'Wheat &amp; Rye', 'Cheese', 'Cheese', None]</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['4 tbsp', '1', '2', '¼ tsp', '2 x 400g cans chopped', '1 tsp', '6 tbsp', '4', '300g', '70g', '50g', '½ small bunch of']</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>[0.01, 0.016666666666666666, 0.03333333333333333, 0.00020537166666666665, 0.13333333333333333, 0.0008214866666666666, 0.015, 0.06666666666666667, 0.049999999999999996, 0.011666666666666667, 0.008333333333333333, 0.0]</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>[0.0053, 0.008333333333333333, 0.016666666666666666, 0, 0.2786666666666666, 0.0026287573333333334, 0.35819999999999996, 0.6579999999999999, 0.0785, 0.2786, 0.19899999999999998, 0]</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1.883895424</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>[0.0038, 0.0065, 0.013, 0, 0.10666666666666667, 0.0016758328, 1.31685, 0.8146666666666667, 0.19249999999999998, 1.0242166666666668, 0.7315833333333334, 0]</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>4.211459166133333</v>
       </c>
     </row>
@@ -590,56 +600,61 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/chicken-chorizo-ragu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/chicken-chorizo-ragu-95dc274.jpg</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>['Casserole', 'Chicken recipe', 'Chorizo', 'Easy family dinner', 'Elena Silcock', 'Ragu', 'Stew', 'Sundried tomatoes']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['kcal 383', 'fat 15g', 'saturates 5g', 'carbs 16g', 'sugars 14g', 'fibre 5g', 'protein 44g', 'salt 1.5g']</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['cooking chorizo,', 'red onion,', 'garlic cloves,', 'hot smoked paprika', 'sundried tomatoes,', 'skinless and boneless chicken thighs', 'chopped tomatoes', 'chicken stock', 'lemon,', 'jacket potatoes,']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Pig Meat', 'Onions &amp; Leeks', 'Onions &amp; Leeks', None, 'Tomatoes', 'Poultry Meat', 'Tomatoes', 'Poultry Meat', 'Citrus Fruit', 'Potatoes']</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>['120g', '1', '2', '1 tsp', '80g', '600g', '400g can', '100ml', '1', None]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[0.03, 0.025, 0.05, 0.00123223, 0.02, 0.15, 0.1, 0.025, 0.025, 0.0]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[0.3693, 0.0125, 0.025, 0, 0.0418, 1.4805, 0.209, 0.24675, 0.009750000000000002, 0.0]</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2.3946</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>[0.5207999999999999, 0.009750000000000002, 0.019500000000000003, 0, 0.016, 1.833, 0.08000000000000002, 0.30550000000000005, 0.021500000000000002, 0.0]</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>2.80605</v>
       </c>
     </row>
@@ -659,56 +674,61 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/easy-vegetable-lasagne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2022/02/vegetarian-lasagne-5ee6162.jpg</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>['Aubergine', 'Aubergines', 'Cherry tomato', 'Cherry tomatoes', 'Emma Lewis', 'Food for friends', 'How to make lasagna', 'Italian recipes', 'Lasagna', 'Lasagne', 'Mozzarella', 'Olive oil', 'Pasta', 'Red pepper', 'Red peppers', 'Vege lasagne', 'Vegetarian lasagne', 'Veggie', 'Veggie lasagne']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['kcal 461', 'fat 29g', 'saturates 9g', 'carbs 37g', 'sugars 14g', 'fibre 5g', 'protein 13g', 'low in salt 0.6g']</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['red peppers,', 'aubergines,', 'olive oil,', 'lasagne sheets', 'mozzarella', 'cherry tomatoes,']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Other Vegetables', 'Other Vegetables', 'Wheat &amp; Rye', 'Cheese', 'Tomatoes']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['3', '2', '8 tbsp', '300g', '125g', 'handful']</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[0.05000000000000001, 0.03333333333333333, 0.02, 0.049999999999999996, 0.020833333333333332, 0.0]</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[0.026500000000000006, 0.017666666666666667, 0.0106, 0.0785, 0.49749999999999994, 0.0]</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.6307666666666666</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>[0.019000000000000003, 0.012666666666666666, 0.0076, 0.19249999999999998, 1.8289583333333335, 0.0]</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2.060725</v>
       </c>
     </row>
@@ -728,56 +748,61 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/herby-fish-fingers-chinese-style-rice</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/herby-fish-fingers-with-rice-440-400-351c31b.jpg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>['1 of 5-a-day', 'Fibre', 'Folate', 'healthy diet plan', 'Iron', 'Sara Buenfeld', 'Sarah Lienard', 'Summer']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['low in kcal 487', 'fat 14g', 'saturates 2g', 'carbs 47g', 'sugars 7g', 'fibre 7g', 'protein 40g', 'salt 1.14g']</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['brown basmati rice', 'frozen peas', 'French beans', 'spring onions', 'dried chilli flakes', 'coriander', 'tamari', 'sesame oil', 'cold-pressed rapeseed oil', 'large eggs', 'pack skinless cod loins']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Rice', 'Peas', 'Other Pulses', 'Onions &amp; Leeks', None, None, None, 'Other Vegetables', 'Other Vegetables', 'Eggs', 'Fish (farmed)']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['100g', '160g', '50g', '3', '½ tsp', 'good handful', '2 tsp', 'few drops', '1 tbsp', '2', '280g']</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[0.05, 0.08, 0.025, 0.15000000000000002, 0.00123223, 0.0, 0.00492892, 0.0, 0.0075, 0.1, 0.14]</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[0.22250000000000003, 0.0784, 0.044750000000000005, 0.07500000000000001, 0, 0, 0, 0.0, 0.003975, 0.467, 1.9082000000000003]</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>2.799825</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>[0.13999999999999999, 0.5968, 0.38925000000000004, 0.05850000000000001, 0, 0, 0, 0.0, 0.00285, 0.627, 1.1774000000000002]</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>2.9918</v>
       </c>
     </row>
@@ -797,56 +822,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/oven-baked-pork-chops</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2022/09/Oven-Baked-Pork-Chops-2dfeaea.jpg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>['Honey', 'New potatoes', 'Pork', 'Pork chops', 'Wholegrain mustard']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['kcal 805', 'fat 38g', 'saturates 10g', 'carbs 67g', 'sugars 31g', 'high in fibre 7g', 'protein 46g', 'salt 1.69g']</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['new potatoes,', 'olive oil', 'garlic cloves,', 'small handful of thyme', 'honey', 'wholegrain mustard', 'thick-cut bone-in pork chops']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Potatoes', 'Other Vegetables', 'Onions &amp; Leeks', None, None, None, 'Pig Meat']</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['1kg', '4 tbsp', '6', None, '6 tbsp', '6 tbsp', '4']</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[0.25, 0.015, 0.15000000000000002, 0.0, 0.0225, 0.0225, 0.1]</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[0.115, 0.00795, 0.07500000000000001, 0, 0, 0, 1.231]</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1.42895</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>[0.22, 0.0057, 0.05850000000000001, 0, 0, 0, 1.736]</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>2.0202</v>
       </c>
     </row>
@@ -866,56 +896,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/easy-scale-cheesy-fish-pie-kale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/fish_pie-850c098.jpg</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>['Anna Glover', 'Calcium', 'Comfort Food', 'Dinner for two', 'Fish', 'Fish pie', 'Kale', 'Midweek meal', 'Vitamin c']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['kcal 634', 'fat 37g', 'saturates 20g', 'carbs 31g', 'sugars 8g', 'fibre 4g', 'protein 42g', 'salt 1.7g']</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['Maris Piper potatoes', 'butter', 'flour', 'whole milk', 'Dijon mustard', 'cheddar', 'fish pie mix', 'frozen peas', 'shredded kale', 'spring onion', 'parmesan', 'green salad']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Potatoes', 'Milk', 'Wheat &amp; Rye', 'Milk', None, 'Cheese', 'Fish (farmed)', 'Peas', 'Other Vegetables', 'Onions &amp; Leeks', 'Cheese', 'Other Vegetables']</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>['200g', '1 tbsp', '1 tbsp', '200ml', '½ tsp', '100g', '200g', '50g', '50g', '1', '1 tbsp', None]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[0.1, 0.0075, 0.0075, 0.1, 0.00123223, 0.05, 0.1, 0.025, 0.025, 0.05, 0.0075, 0.0]</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[0.046000000000000006, 0.023625, 0.011775, 0.315, 0, 1.194, 1.3630000000000002, 0.0245, 0.013250000000000001, 0.025, 0.17909999999999998, 0.0]</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3.195250000000001</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>[0.08800000000000001, 0.06712499999999999, 0.028874999999999998, 0.895, 0, 4.389500000000001, 0.8410000000000001, 0.1865, 0.009500000000000001, 0.019500000000000003, 0.658425, 0.0]</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>7.183425000000001</v>
       </c>
     </row>
@@ -935,56 +970,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/mustard-parmesan-crumbed-chicken</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2022/10/Mustard-and-parmesan-crumbed-chicken-43562fc.jpg</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>['Chicken', 'Chicken drumsticks', 'Midweek meal', 'Mustard', 'Parmesan']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['kcal 484', 'fat 18g', 'saturates 5g', 'carbs 37g', 'sugars 8g', 'fibre 6g', 'protein 40g', 'salt 1.3g']</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['Dijon mustard', ' low-fat natural yogurt', 'parmesan,', 'soft white breadcrumbs', 'dried mixed herbs', 'lemon,', 'olive oil', 'skin-on, bone-in chicken drumsticks', 'baby potatoes,', 'green beans']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[None, None, 'Cheese', 'Wheat &amp; Rye', None, 'Citrus Fruit', 'Other Vegetables', 'Poultry Meat', 'Potatoes', 'Other Pulses']</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['1 tbsp', '200g', '30g', '100g', '2 tsp', '1', '1½ tbsp', '1kg', '500g', '320g']</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[0.00375, 0.05, 0.0075, 0.025, 0.00246446, 0.025, 0.005625, 0.25, 0.125, 0.08]</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[0, 0, 0.17909999999999998, 0.03925000000000001, 0, 0.009750000000000002, 0.00298125, 2.4675, 0.0575, 0.1432]</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>2.89928125</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>[0, 0, 0.658425, 0.09625, 0, 0.021500000000000002, 0.0021375, 3.055, 0.11, 1.2456]</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>5.1889125</v>
       </c>
     </row>
@@ -1004,56 +1044,61 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/pulled-pork-tacos-pineapple-salsa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/pulled-pork-pineapple-tacos-2a69420.jpg</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>['Cassie Best', 'Family friendly', 'Family meals', 'Pineapple', 'Pulled pork', 'Salsa', 'sharing meals', 'Tacos']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['kcal 537', 'fat 32g', 'saturates 10g', 'carbs 25g', 'sugars 12g', 'fibre 5g', 'protein 35g', 'salt 0.4g']</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['pork', 'garlic cloves', 'tomato purée', 'chipotle paste', 'orange', 'limes', 'pineapple', 'dried  oregano', 'smoked  paprika', 'ground cumin', 'ground coriander', 'nutmeg']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Pig Meat', 'Onions &amp; Leeks', 'Tomatoes', 'Other Vegetables', None, None, 'Other Fruit', None, None, None, None, 'Groundnuts']</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>['1½kg boneless ', '2', '2 tbsp', '1 tbsp', '1', '2', '432g can ', '2 tsp', '2 tsp', '1 tsp', '1 tsp', 'grating of fresh ']</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[0.25, 0.03333333333333333, 0.005, 0.0025, 0.016666666666666666, 0.03333333333333333, 0.072, 0.0016429733333333332, 0.0016429733333333332, 0.0008214866666666666, 0.0008214866666666666, 0.0]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[3.0775, 0.016666666666666666, 0.01045, 0.001325, 0, 0, 0.0756, 0, 0, 0, 0, 0.0]</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>3.181541666666667</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>[4.34, 0.013, 0.004, 0.00095, 0, 0, 0.06408, 0, 0, 0, 0, 0.0]</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>4.422029999999999</v>
       </c>
     </row>
@@ -1073,56 +1118,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/easy-venison-pie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2022/09/Venison-Pie-0fb996b.jpg</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>['Pie', 'Puff pastry', 'Savoury pie', 'Venison']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['kcal 569', 'fat 28g', 'saturates 11g', 'carbs 32g', 'sugars 4g', 'fibre 4g', 'protein 47g', 'salt 2.1g']</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['sunflower oil', 'diced venison', 'smoked bacon lardons,', 'onions,', 'bay leaves', 'chestnut mushrooms,', 'plain flour', 'ketchup', 'red wine', 'beef stock cubes', 'egg yolk,', 'sheet of ready-rolled puff pastry']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Beef (beef herd)', 'Pig Meat', 'Onions &amp; Leeks', None, 'Other Vegetables', 'Wheat &amp; Rye', 'Tomatoes', 'Wine', None, 'Eggs', 'Wheat &amp; Rye']</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>['2½ tbsp', '1kg', '100g', '2', '2', '200g', '3 tbsp', '1 tbsp', '150ml', '2', '1', '375g']</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[0.0062499999999999995, 0.16666666666666666, 0.016666666666666666, 0.03333333333333333, 0.03333333333333333, 0.03333333333333333, 0.0075, 0.0025, 0.024999999999999998, 0.03333333333333333, 0.016666666666666666, 0.0625]</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[0.0033125, 16.58, 0.20516666666666666, 0.016666666666666666, 0, 0.017666666666666667, 0.011775, 0.005225, 0.04475, 0, 0.07783333333333334, 0.098125]</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>17.06052083333333</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>[0.002375, 54.368333333333325, 0.28933333333333333, 0.013, 0, 0.012666666666666666, 0.028874999999999998, 0.002, 0.0445, 0, 0.1045, 0.240625]</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>55.10620833333333</v>
       </c>
     </row>
@@ -1142,56 +1192,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/pork-chops-mustardy-butter-beans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/pork-chops-mustardy-butter-beans-77dd252.jpg</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>['Butter beans', 'Calcium', 'Dinner for 2', 'Esther Clark', 'Fibre', 'Folate', 'Iron', 'Pork chops', 'Valentines Day']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['kcal 610', 'fat 37g', 'saturates 12g', 'carbs 22g', 'sugars 7g', 'fibre 9g', 'protein 43g', 'salt 0.8g']</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['olive oil', 'onion', 'small garlic clove', 'butter beans', 'chicken stock', 'spinach', 'crème fraîche', 'wholegrain mustard', 'pork chops']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Onions &amp; Leeks', 'Onions &amp; Leeks', 'Other Pulses', 'Poultry Meat', 'Other Vegetables', 'Milk', None, 'Pig Meat']</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>['2 tbsp', '1', '1', '400g can', '100ml', '200g', '3 tbsp', '½ tbsp', '2']</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[0.015, 0.05, 0.05, 0.2, 0.05, 0.1, 0.0225, 0.00375, 0.1]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[0.00795, 0.025, 0.025, 0.35800000000000004, 0.4935, 0.053000000000000005, 0.070875, 0, 1.231]</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>2.264325</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>[0.0057, 0.019500000000000003, 0.019500000000000003, 3.1140000000000003, 0.6110000000000001, 0.038000000000000006, 0.20137499999999997, 0, 1.736]</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>5.745075</v>
       </c>
     </row>
@@ -1211,56 +1266,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/meatball-tomato-soup</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/meatball-tomato-soup-afa0bd0.jpg</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>['Esther Clark', 'Giant couscous', 'Healthy', 'Low calorie', 'Low fat', 'Vitamin c']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['low in kcal 330', 'low in fat 12g', 'saturates 3g', 'carbs 36g', 'sugars 14g', 'fibre 6g', 'protein 17g', 'salt 0.7g']</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['rapeseed oil', 'onion,', 'red peppers,', 'garlic clove,', 'chilli flakes', 'tomatoes', 'giant couscous', 'hot vegetable stock', 'pork meatballs', 'baby spinach', 'basil', 'grated parmesan,']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Onions &amp; Leeks', 'Other Vegetables', 'Onions &amp; Leeks', None, 'Tomatoes', 'Rice', None, 'Pig Meat', 'Other Vegetables', 'Other Vegetables', 'Cheese']</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>['1½ tbsp', '1', '2', '1', '½ tsp', '2 x 400g cans chopped', '100g', '500ml', '12', '150g', '½ small bunch of', None]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>[0.005625, 0.025, 0.05, 0.025, 0.000616115, 0.2, 0.025, 0.125, 0.30000000000000004, 0.0375, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[0.00298125, 0.0125, 0.026500000000000003, 0.0125, 0, 0.418, 0.11125000000000002, 0, 3.6930000000000005, 0.019875, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>4.296606250000001</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>[0.0021375, 0.009750000000000002, 0.019000000000000003, 0.009750000000000002, 0, 0.16000000000000003, 0.06999999999999999, 0, 5.208, 0.014249999999999999, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>5.4928875</v>
       </c>
     </row>
@@ -1280,56 +1340,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/pork-souvlaki</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/pork-souvlaki-1380e9d.jpg</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>['Easy', 'Esther Clark', 'Folate', 'Healthy', 'Midweek meal', 'Pork', 'soulaki', 'Vitamin c']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['kcal 210', 'fat 8g', 'saturates 2g', 'carbs 8g', 'sugars 8g', 'fibre 5g', 'protein 25g', 'salt 0.3g']</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['lean pork', 'olive oil', 'oregano', 'lemon', 'hot paprika', 'fat-free yogurt', 'small garlic clove', 'cucumber', 'red peppers', 'Little Gem lettuce', 'chilli sauce', 'flatbreads']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Pig Meat', 'Other Vegetables', None, 'Citrus Fruit', None, None, 'Onions &amp; Leeks', 'Other Fruit', 'Other Vegetables', 'Other Vegetables', None, 'Wheat &amp; Rye']</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>['400g', '1 tbsp', '½ tbsp dried', '1', '½ tsp', '100ml', '1', '½', '2', '2', None, None]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[0.1, 0.00375, 0.001875, 0.025, 0.000616115, 0.025, 0.025, 0.0125, 0.05, 0.05, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[1.231, 0.0019875, 0, 0.009750000000000002, 0, 0, 0.0125, 0.013125000000000001, 0.026500000000000003, 0.026500000000000003, 0, 0.0]</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1.3213625</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>[1.736, 0.001425, 0, 0.021500000000000002, 0, 0, 0.009750000000000002, 0.011125000000000001, 0.019000000000000003, 0.019000000000000003, 0, 0.0]</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1.8178</v>
       </c>
     </row>
@@ -1349,56 +1414,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/cheesy-ham-hock-spinach-ricotta-lasagne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/cheesy_ham_hock_spinach_ricotta_lasagne-ba32dc8.jpg</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>['Dinner', 'Easy', 'Esther Clark', 'Family meals', 'Ham hock', 'Lasagne', 'Ricotta', 'Spinach']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['kcal 606', 'fat 30g', 'saturates 18g', 'carbs 47g', 'sugars 10g', 'fibre 3g', 'protein 36g', 'salt 2.4g']</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['butter', 'plain flour', 'whole  milk', 'bay leaf', 'grated parmesan', 'Dijon mustard', 'cayenne pepper', 'spinach', 'ricotta', 'nutmeg', 'ham hock', 'dried  lasagne sheets', 'grated  mozzarella']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Milk', 'Wheat &amp; Rye', 'Milk', None, 'Cheese', None, None, 'Other Vegetables', 'Cheese', 'Groundnuts', 'Pig Meat', 'Wheat &amp; Rye', 'Cheese']</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>['70g', '70g', '1l', '1', '80g', '2 tsp', 'pinch of ', '600g', '250g', '1 whole ', '300g', '12', '50g']</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[0.011666666666666667, 0.011666666666666667, 0.16666666666666666, 0.016666666666666666, 0.013333333333333334, 0.0016429733333333332, 0.0, 0.09999999999999999, 0.041666666666666664, 0.0, 0.049999999999999996, 0.20000000000000004, 0.008333333333333333]</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[0.03675, 0.01831666666666667, 0.5249999999999999, 0, 0.3184, 0, 0, 0.053, 0.9949999999999999, 0.0, 0.6154999999999999, 0.31400000000000006, 0.19899999999999998]</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3.074966666666667</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>[0.10441666666666666, 0.04491666666666667, 1.4916666666666665, 0, 1.1705333333333334, 0, 0, 0.038, 3.657916666666667, 0.0, 0.8679999999999999, 0.7700000000000001, 0.7315833333333334]</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>8.877033333333333</v>
       </c>
     </row>
@@ -1418,56 +1488,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/one-pan-roast-rack-of-lamb-green-olive-potatoes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2022/01/One-pan-roast-rack-of-lamb-and-green-olive-potatoes-b36ab75.jpg</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>['Anchovies', 'couples recipes', 'Dinner for two', 'Olives', 'One-pan dinner', 'Roast lamb', 'Valentines']</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['kcal 748', 'fat 44g', 'saturates 22g', 'carbs 53g', 'sugars 7g', 'high in fibre 8g', 'protein 31g', 'salt 1.2g']</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['rack of lamb', 'butter', 'onion,', 'garlic clove,', 'anchovy,', 'rosemary springs,', 'King Edward potatoes,', 'green olives,', 'lamb stock']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Lamb &amp; Mutton', 'Milk', 'Onions &amp; Leeks', 'Onions &amp; Leeks', 'Fish (farmed)', None, 'Potatoes', 'Other Pulses', 'Lamb &amp; Mutton']</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>['1', '25g', '1', '1', '1', 'small handful of', '500g Maris Piper or', '10 pitted', '100ml chicken or']</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[0.05, 0.0125, 0.05, 0.05, 0.05, 0.0, 0.25, 0.0, 0.05]</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[1.986, 0.039375, 0.025, 0.025, 0.6815000000000001, 0, 0.115, 0.0, 1.986]</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>4.857875</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>[18.4905, 0.111875, 0.019500000000000003, 0.019500000000000003, 0.42050000000000004, 0, 0.22, 0.0, 18.4905]</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>37.772375</v>
       </c>
     </row>
@@ -1487,56 +1562,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/gnocchi-fish-pie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/gnocchi-fish-pie-49f3601.jpg</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>['Anna Glover', 'balanced', 'Family meals', 'Fibre', 'Fish pie', 'Gnocchi', 'Low calorie', 'Midweek meal', 'Quick']</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['low in kcal 435', 'fat 14g', 'saturates 6g', 'carbs 44g', 'sugars 9g', 'fibre 7g', 'protein 29g', 'salt 1.4g']</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['gnocchi', 'semi-skimmed milk', 'cornflour', 'fish pie mix', 'spring onions', 'chopped chives', 'reduced-fat  crème fraîche', 'capers', 'frozen  peas', 'olive oil', 'long-stem  broccoli']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Potatoes', 'Milk', 'Wheat &amp; Rye', 'Fish (farmed)', 'Onions &amp; Leeks', None, 'Milk', 'Other Pulses', 'Peas', 'Other Vegetables', 'Other Vegetables']</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>['350g', '200ml', '2 tbsp', '400g', '4', '1 tbsp', '150ml', '1 tsp', '200g', '1 tsp', '250g']</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[0.08750000000000001, 0.05, 0.0075, 0.1, 0.1, 0.00375, 0.0375, 0.00123223, 0.05, 0.00123223, 0.0625]</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[0.04025000000000001, 0.1575, 0.011775, 1.3630000000000002, 0.05, 0, 0.118125, 0.0022056917, 0.049, 0.0006530819, 0.033125]</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1.8256337736</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>[0.07700000000000001, 0.4475, 0.028874999999999998, 0.8410000000000001, 0.03900000000000001, 0, 0.33562499999999995, 0.0191858211, 0.373, 0.0004682474, 0.02375]</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>2.1854040685</v>
       </c>
     </row>
@@ -1556,56 +1636,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/pasta-salmon-peas</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/salmonpasta-11bb3f0.jpg</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>['Caroline Hire', 'Family meals', 'Fibre', 'Healthy dinner', 'Low calorie', 'Omega 3', 'Pasta', 'Quick dinner', 'quick salmon pasta', 'Salmon', 'salmon pasta', 'Toddler recipes']</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['low in kcal 463', 'fat 19g', 'saturates 6g', 'carbs 44g', 'sugars 5g', 'fibre 7g', 'protein 25g', 'salt 0.2g']</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['wholewheat fusilli', 'butter', 'large shallot,', 'frozen peas', 'skinless salmon', 'low-fat crème fraîche', 'low-salt vegetable stock cube', 'chives,']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Wheat &amp; Rye', 'Milk', 'Onions &amp; Leeks', 'Peas', 'Fish (farmed)', 'Milk', None, None]</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>['240g', 'knob of', '1', '140g', '2', '140g', '½', 'small bunch of']</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[0.08, 0.0, 0.03333333333333333, 0.04666666666666667, 0.06666666666666667, 0.04666666666666667, 0.016666666666666666, 0.0]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[0.12560000000000002, 0.0, 0.016666666666666666, 0.045733333333333334, 0.9086666666666667, 0.147, 0, 0]</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1.243666666666667</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>[0.308, 0.0, 0.013, 0.34813333333333335, 0.5606666666666666, 0.41766666666666663, 0, 0]</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>1.647466666666667</v>
       </c>
     </row>
@@ -1625,56 +1710,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/fish-pie-mac-n-cheese</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/fish-pie-mac-cheese-5ece214.jpg</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>['best macaroni cheese', 'Cassie Best', 'Family friendly', 'Family meals', 'Fish', 'Fish pie', 'Mac n cheese', 'Macaroni']</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['kcal 504', 'fat 22g', 'saturates 12g', 'carbs 47g', 'sugars 8g', 'fibre 5g', 'protein 28g', 'salt 1.1g']</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['milk', 'plain flour', 'butter', 'Dijon mustard', 'mature  cheddar', 'frozen peas', 'parsley', 'macaroni', 'fish pie mix', 'green salad']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Milk', 'Wheat &amp; Rye', 'Milk', None, 'Cheese', 'Peas', None, 'Wheat &amp; Rye', 'Fish (farmed)', 'Other Vegetables']</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['650ml', '40g', '40g', '2 tsp', '150g', '180g', 'handful of ', '300g', '300g', None]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[0.10833333333333334, 0.006666666666666667, 0.006666666666666667, 0.0016429733333333332, 0.024999999999999998, 0.03, 0.0, 0.049999999999999996, 0.049999999999999996, 0.0]</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[0.34125, 0.010466666666666668, 0.021, 0, 0.597, 0.0294, 0, 0.0785, 0.6815, 0.0]</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1.759116666666667</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>[0.9695833333333332, 0.025666666666666667, 0.059666666666666666, 0, 2.19475, 0.2238, 0, 0.19249999999999998, 0.4205, 0.0]</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>4.086466666666666</v>
       </c>
     </row>
@@ -1694,56 +1784,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/meatball-garlic-bread-traybake</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/meatballsgarlic-bread-9245ad6.jpg</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>['Cassie Best', 'Family friendly', 'Family meals', 'Garlic bread', 'Lunch', 'Meatballs', 'Traybake', 'Turkey']</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['kcal 565', 'fat 28g', 'saturates 13g', 'carbs 34g', 'sugars 19g', 'fibre 6g', 'protein 42g', 'salt 1.3g']</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['turkey thigh mince', 'dried oregano', 'fennel seeds', 'olive oil', 'onion,', 'garlic cloves,', 'tomato purée', 'tomatoes', 'sugar', 'mozzarella,', 'garlic breadsticks', 'cheddar,', 'green salad']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Poultry Meat', None, None, 'Other Vegetables', 'Onions &amp; Leeks', 'Onions &amp; Leeks', 'Tomatoes', 'Tomatoes', 'Cane Sugar', 'Cheese', 'Wheat &amp; Rye', 'Cheese', 'Other Vegetables']</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>['350g', '1 tsp', '1 tsp', '1½ tbsp ', '1 large ', '3', '1 tbsp', '2 x 400g cans chopped ', '2 tsp', '150g ball ', '4', '25g', None]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[0.11666666666666668, 0.0016429733333333332, 0.0016429733333333332, 0.0075, 0.0, 0.10000000000000002, 0.005, 0.26666666666666666, 0.0032859466666666664, 0.049999999999999996, 0.13333333333333333, 0.008333333333333333, 0.0]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[1.1515, 0, 0, 0.003975, 0.0, 0.05000000000000001, 0.01045, 0.5573333333333332, 0.010515029333333334, 1.194, 0.20933333333333334, 0.19899999999999998, 0.0]</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>3.386106696</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>[1.4256666666666669, 0, 0, 0.00285, 0.0, 0.03900000000000001, 0.004, 0.21333333333333335, 0.0067033312, 4.3895, 0.5133333333333333, 0.7315833333333334, 0.0]</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>7.325969997866666</v>
       </c>
     </row>
@@ -1763,56 +1858,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/chipotle-chicken-slaw</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/hot-wings-and-slaw-1903ce0.jpg</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>['Chicken', 'chipotle. slaw', 'Coleslaw', 'Esther Clark', 'Healthy', 'hot wings', 'Low calorie', 'Midweek meal', 'Vitamin c']</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['low in kcal 318', 'fat 16g', 'saturates 4g', 'carbs 13g', 'sugars 13g', 'fibre 4g', 'protein 27g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['rapeseed oil', 'chipotle paste', 'honey', 'chicken drumsticks', 'lime', 'small avocado', 'fat-free Greek yogurt', 'each red and white cabbage', 'large carrot', 'spring onions', 'corn on the cobs']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Other Vegetables', None, 'Poultry Meat', None, 'Other Vegetables', None, 'Other Vegetables', 'Other Vegetables', 'Onions &amp; Leeks', 'Maize']</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>['1 tbsp', '2 tbsp', '1½ tbsp', '8', '1', '1', '2 tbsp', '125g', '1', '3', '4']</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[0.00375, 0.0075, 0.005625, 0.2, 0.025, 0.025, 0.0075, 0.03125, 0.025, 0.07500000000000001, 0.1]</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[0.0019875, 0.003975, 0, 1.974, 0, 0.013250000000000001, 0, 0.0165625, 0.013250000000000001, 0.037500000000000006, 0.17]</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>2.230525</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>[0.001425, 0.00285, 0, 2.4440000000000004, 0, 0.009500000000000001, 0, 0.011875, 0.009500000000000001, 0.029250000000000005, 0.294]</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>2.8024</v>
       </c>
     </row>
@@ -1832,56 +1932,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/roast-chicken-squashed-new-potatoes-cheesy-creamed-spinach</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/roast-chicken-with-squashed-baby-roasties-cheesy-creamed-spinach-d7dab55.jpg</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>['Cassie Best', 'Chicken drumsticks', 'Creamed spinach', 'Family friendly', 'Family meals', 'New potatoes']</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['kcal 612', 'fat 24g', 'saturates 8g', 'carbs 56g', 'sugars 15g', 'fibre 11g', 'protein 36g', 'salt 0.6g']</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['baby new potatoes', 'olive oil', 'lemon', 'garlic cloves', 'thyme', 'bay leaves', 'chicken', 'paprika', 'carrots']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Potatoes', 'Other Vegetables', 'Citrus Fruit', 'Onions &amp; Leeks', None, None, 'Poultry Meat', None, 'Other Vegetables']</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>['700g', '2 tbsp', '1', '4', 'small bunch of ', '4', None, '½ tsp ', '300g']</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[0.23333333333333336, 0.01, 0.03333333333333333, 0.13333333333333333, 0.0, 0.13333333333333333, 0.0, 0.0008214866666666666, 0.09999999999999999]</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[0.10733333333333335, 0.0053, 0.013, 0.06666666666666667, 0, 0, 0.0, 0, 0.053]</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.2453</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>[0.20533333333333337, 0.0038, 0.028666666666666667, 0.052, 0, 0, 0.0, 0, 0.038]</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>0.3278</v>
       </c>
     </row>
@@ -1901,56 +2006,61 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/spiced-salmon-tomato-traybake</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/spiced-salmon-tomato-traybake-e6664f7.jpg</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>['Anna Glover', 'Healthy', 'Midweek meal', 'Omega 3', 'Salmon', 'Spicy', 'Tomatoes']</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['kcal 796', 'fat 34g', 'saturates 5g', 'carbs 62g', 'sugars 15g', 'fibre 13g', 'protein 54g', 'salt 1.7g']</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['red onion', 'cherry tomatoes', 'mild or madras  curry paste', 'chickpeas', 'skinless salmon', 'naan breads', 'fat-free  yogurt', 'lemon wedges']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Onions &amp; Leeks', 'Tomatoes', None, 'Peas', 'Fish (farmed)', 'Wheat &amp; Rye', None, 'Citrus Fruit']</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['1', '200g', '3 tbsp', '400g can ', '2', '1 large or 2 small ', '2 tbsp', None]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[0.05, 0.1, 0.0225, 0.2, 0.1, 0.0, 0.015, 0.0]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[0.025, 0.209, 0, 0.196, 1.3630000000000002, 0.0, 0, 0.0]</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1.793</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>[0.019500000000000003, 0.08000000000000002, 0, 1.492, 0.8410000000000001, 0.0, 0, 0.0]</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>2.4325</v>
       </c>
     </row>
@@ -1970,56 +2080,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/prawn-tikka-masala</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/prawn-tikka-masala-a4a86f9.jpg</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>['Curry', 'Easy', 'Esther Clark', 'Indian', 'Midweek meal', 'Prawns', 'Tikka masala']</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['low in kcal 432', 'fat 16g', 'saturates 3g', 'carbs 50g', 'sugars 12g', 'fibre 5g', 'protein 18g', 'salt 1.1g']</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['large onion', 'ginger', 'large garlic cloves', 'rapeseed oil', 'tikka curry paste', 'tomatoes', 'tomato purée', 'light brown soft sugar', 'cardamom pods', 'brown basmati rice', 'ground almonds', 'raw king prawns', 'double cream', 'coriander', 'naan breads']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Onions &amp; Leeks', None, 'Onions &amp; Leeks', 'Other Vegetables', None, 'Tomatoes', 'Tomatoes', 'Cane Sugar', None, 'Rice', 'Groundnuts', 'Prawns (farmed)', 'Milk', None, 'Wheat &amp; Rye']</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>['1', '1 thumb-sized piece', '2', '1 tbsp', '2-3 tbsp', '400g can chopped', '2 tbsp', '½ tbsp', '3', '200g', '3 tbsp', '300g', '1 tbsp', '½ bunch of', None]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[0.025, 0.0, 0.05, 0.00375, 0.0075, 0.1, 0.0075, 0.001875, 0.07500000000000001, 0.05, 0.01125, 0.075, 0.00375, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[0.0125, 0, 0.025, 0.0019875, 0, 0.209, 0.015674999999999998, 0.006, 0, 0.22250000000000003, 0.0363375, 2.01525, 0.0118125, 0, 0.0]</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>2.5560625</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>[0.009750000000000002, 0, 0.019500000000000003, 0.001425, 0, 0.08000000000000002, 0.006, 0.003825, 0, 0.13999999999999999, 0.1024875, 0.22275, 0.033562499999999995, 0, 0.0]</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0.6193</v>
       </c>
     </row>
@@ -2039,56 +2154,61 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/fish-chip-traybake</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/fish-and-chip-tray-bake-5fd8c08.jpg</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>['Chips', 'Easy', 'Esther Clark', 'Family meal', 'Fish', 'Midweek meal', 'Traybake']</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['kcal 396', 'fat 9g', 'saturates 1g', 'carbs 37g', 'sugars 21g', 'fibre 8g', 'protein 37g', 'salt 0.6g']</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['large sweet potatoes', 'rapeseed oil', 'fat-free natural yogurt', 'low-fat mayonnaise', 'cornichons', 'shallot', 'finely chopped dill', 'frozen peas', 'milk', 'finely chopped mint', 'cod', 'lemon']</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>['Potatoes', 'Other Vegetables', None, None, 'Other Fruit', 'Onions &amp; Leeks', None, 'Peas', 'Milk', None, 'Fish (farmed)', 'Citrus Fruit']</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>['2', '1 tbsp', '4 tbsp', '2 tbsp', '3', '1', '1 tbsp', '300g', '50ml', '1 tbsp', '4', '1']</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[0.05, 0.00375, 0.015, 0.0075, 0.07500000000000001, 0.025, 0.00375, 0.075, 0.0125, 0.00375, 0.1, 0.025]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[0.023000000000000003, 0.0019875, 0, 0, 0.07875000000000001, 0.0125, 0, 0.0735, 0.039375, 0, 1.3630000000000002, 0.009750000000000002]</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1.6018625</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>[0.044000000000000004, 0.001425, 0, 0, 0.06675000000000002, 0.009750000000000002, 0, 0.5595, 0.111875, 0, 0.8410000000000001, 0.021500000000000002]</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1.6558</v>
       </c>
     </row>
@@ -2108,56 +2228,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>https://www.bbcgoodfood.com/recipes/broccoli-pesto-pancetta-pasta</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>https://images.immediate.co.uk/production/volatile/sites/30/2020/08/broccoli-pesto-pancetta-pasta-75e3452.jpg</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>['Broccoli', 'Esther Clark', 'Fibre', 'Healthy', 'Low calorie', 'Pancetta', 'Pasta', 'Pesto', 'Tomatoes']</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['low in kcal 452', 'fat 14g', 'saturates 4g', 'carbs 60g', 'sugars 5g', 'fibre 7g', 'protein 19g', 'salt 0.5g']</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['head broccoli', 'pasta', 'pine nuts', 'basil', 'garlic clove', 'parmesan', 'olive oil', 'smoked pancetta', 'cherry tomatoes']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Other Vegetables', 'Wheat &amp; Rye', 'Groundnuts', 'Other Vegetables', 'Onions &amp; Leeks', 'Cheese', 'Other Vegetables', 'Pig Meat', 'Tomatoes']</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>['300g', '300g', '1 tbsp', '1 large bunch of', '1 large', '2 tbsp', '1 tbsp', '50g', '200g']</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[0.075, 0.075, 0.00375, 0.0, 0.0, 0.0075, 0.00375, 0.0125, 0.05]</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[0.03975, 0.11775, 0.0121125, 0.0, 0.0, 0.17909999999999998, 0.0019875, 0.153875, 0.1045]</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.609075</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>[0.028499999999999998, 0.28875, 0.0341625, 0.0, 0.0, 0.658425, 0.001425, 0.217, 0.04000000000000001]</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>1.2682625</v>
       </c>
     </row>
